--- a/one_variable_template.xlsx
+++ b/one_variable_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghanlu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghanlu/Desktop/tryout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF85EEFC-5DFB-2E40-BC23-C1A665725625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1A14E8-85AA-F741-8503-16EF95620BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Jan</t>
   </si>
@@ -74,12 +74,6 @@
     <t>-&gt; Column B (Value) is value on the vertical axis</t>
   </si>
   <si>
-    <t xml:space="preserve">-&gt; Feel free to change column titles based on your own data, </t>
-  </si>
-  <si>
-    <t>-&gt; Change the column titles and legend will change automatically</t>
-  </si>
-  <si>
     <t>-&gt; Double click the graph title to edit</t>
   </si>
   <si>
@@ -90,6 +84,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>-&gt; Feel free to change column titles based on your own data, and legends will change automatically</t>
   </si>
 </sst>
 </file>
@@ -185,14 +182,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +671,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-              <a:t>chinage</a:t>
+              <a:t>chage</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
@@ -2484,7 +2481,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2493,84 +2490,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A16:A17"/>
+  <mergeCells count="7">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2581,7 +2572,7 @@
   <dimension ref="A1:B174"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
